--- a/dataset_v1/task_sheet_answers/PresentValue/1_PresentValue/1_PresentValue_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/PresentValue/1_PresentValue/1_PresentValue_gt1.xlsx
@@ -1,80 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\PresentValue\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D476F-74C9-4018-B2D3-82D1922B2A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9312" windowHeight="12360" xr2:uid="{2C109579-8382-4F67-9920-DA0D6F30AF86}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="9312" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Present Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Annual Interest Rate</t>
-  </si>
-  <si>
-    <t># Compound Periods</t>
-  </si>
-  <si>
-    <t>Future Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)" numFmtId="164"/>
+    <numFmt formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ " numFmtId="165"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,37 +54,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <cellXfs count="7">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,126 +450,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927E5CA-76B3-43BB-82DF-BD1ED89CA70A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.6640625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="21"/>
+    <col customWidth="1" max="6" min="6" style="4" width="16.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Present Value</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Annual Interest Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t># Compound Periods</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Future Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="5">
+        <f>F2/((1+D2/E2)^(C2*E2))</f>
+        <v/>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>17328</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="5">
+        <f>F3/((1+D3/E3)^(C3*E3))</f>
+        <v/>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>41517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="5">
+        <f>F4/((1+D4/E4)^(C4*E4))</f>
+        <v/>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>790382</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <f>F2/((1+D2/E2)^(C2*E2))</f>
-        <v>10823.017675123368</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>17328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B5" si="0">F3/((1+D3/E3)^(C3*E3))</f>
-        <v>29194.136916366071</v>
-      </c>
-      <c r="C3">
+      <c r="B5" s="5">
+        <f>F5/((1+D5/E5)^(C5*E5))</f>
+        <v/>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>41517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>120292.00254823346</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>790382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>66340.372253442591</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6" t="n">
         <v>647816</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>